--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010181</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业优势产业混合A</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.96</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010182</t>
+          <t>010181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业优势产业混合C</t>
+          <t>兴业优势产业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>69.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.90</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.16</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>13.72</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>010182</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>兴业优势产业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>62.97</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>96.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>51.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>85.79</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.20</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.05</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.83</v>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>14.83</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2223,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>18.83</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2239,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>14.83</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2255,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2356,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -2239,14 +2372,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>18.83</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -2255,14 +2388,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>14.83</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="7">
@@ -2271,13 +2404,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>18.83</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>14.83</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.06</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>82.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4914</t>
+          <t>0.3989</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,338 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001899</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +1107,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9003</t>
+          <t>0.4914</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -836,12 +1155,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -851,7 +1170,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -864,6 +1183,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,7 +1730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002690-美亚光电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>18.83</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>14.83</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.06</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1043,138 +1552,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4914</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1239,36 +1616,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9003</t>
+          <t>0.4914</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1287,12 +1664,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1302,7 +1679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1315,6 +1692,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1484,7 +1993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1730,7 +2239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2280,7 +2789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2562,326 +3071,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8976</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7699</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010181</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006366</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业安保优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>69.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>